--- a/biology/Botanique/Kniphofia_uvaria/Kniphofia_uvaria.xlsx
+++ b/biology/Botanique/Kniphofia_uvaria/Kniphofia_uvaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tritome à longues grappes (Kniphofia uvaria) est une plante vivace du genre Kniphofia originaire de la province du Cap en Afrique du sud facilement reconnaissable avec ses fleurs rouges, orange et jaunes réunies en grappes denses au sommet de hampes sans feuilles. 
 Cette espèce fut la première espèce du genre cultivée en Europe et elle est encore très présente dans nos jardins.
@@ -514,9 +526,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la classification classique de Cronquist (1981)[2], ces végétaux sont classés dans les Liliaceae, groupe de Liliales spéciales du Vieux Monde (Arabie à Madagascar) alors que les agaves, qui leur ressemblent beaucoup, sont uniquement américains.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la classification classique de Cronquist (1981), ces végétaux sont classés dans les Liliaceae, groupe de Liliales spéciales du Vieux Monde (Arabie à Madagascar) alors que les agaves, qui leur ressemblent beaucoup, sont uniquement américains.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le kniphofia est une plante vivace à racines charnues à croissance rapide. Elle forme une touffe de 60 cm de diamètre pouvant atteindre jusqu'à 1,5 m de hauteur.
 Son feuillage persistant long, étroit et rigide rappelle celui du lis.
@@ -578,17 +594,54 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le kniphofia apprécie les sols riches, sableux, calcaires et bien drainés. Il a besoin d'une exposition en plein soleil de préférence à l'abri du vent.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le kniphofia apprécie les sols riches, sableux, calcaires et bien drainés. Il a besoin d'une exposition en plein soleil de préférence à l'abri du vent.
 En hiver, il peut supporter des températures négatives jusqu'à -10 °C si on protège le pied par un épais paillage de feuilles sèches ou de fougères sèches entrelacées qui ne retiendront pas l’eau mais on veillera à planter le rhizome au moins à 10 cm sous le sol pour mieux le protéger du froid.
 Chaque rhizome nécessite 30 cm en tous sens pour bien se développer. Rabattre le feuillage de moitié en début de printemps pour favoriser sa repousse.
 Une fertilisation régulière en période de croissance optimisera la floraison.
 La plante peut être sujette à la pourriture grise si on la plante dans un substrat pas assez drainant.
 Les escargots et limaces en sont friands mais elle est toxique pour les animaux domestiques.
 Multiplication par division de touffe en début de printemps ou à l'automne tous les 2 à 3 ans. Possible aussi par semis mais première floraison assez longue à venir.
-Cultivars
-Les différents cultivars se distinguent par leur hauteur, la couleur de leurs fleurs, leur période de floraison et leur rusticité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kniphofia_uvaria</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kniphofia_uvaria</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cultivars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les différents cultivars se distinguent par leur hauteur, la couleur de leurs fleurs, leur période de floraison et leur rusticité.
 Kniphofia 'Alcazar' : hauteur  1 m, à feuillage teinté de bronze, épis rouge feu ;
 Kniphofia 'Atlanta' à fleurs allant du rouge au jaune ;
 Kniphofia 'Aurore' : hauteur 100 cm, fleurs jaune crème à saumon, de juin à septembre ;
@@ -603,31 +656,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Kniphofia_uvaria</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Kniphofia_uvaria</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cultivée à des fins ornementales en Europe et Amérique du Nord aussi bien en massif auquel ils donneront une touche exotique qu'en fleurs coupées. Réussit bien en association avec un Solidago, un yucca ou un canna ou en sujet isolé près d'une pièce d'eau par exemple.
 Sa longue floraison en fait une bonne plante mellifère.
@@ -635,31 +690,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Kniphofia_uvaria</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Kniphofia_uvaria</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Plante invasive</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans certaines régions du sud-est de l'Australie (Central Tablelands, Southern Tablelands de Nouvelle-Galles du Sud et dans le sud de l'état de Victoria) et de Californie, l'espèce a échappé à la culture et s'est naturalisée. Elle peut y être considérée comme une plante invasive car ses touffes épaisses poussent dans les écosystèmes sensibles.
 </t>
